--- a/formula bala.xlsx
+++ b/formula bala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador.Cirino\Desktop\Juego\Juego-Vs-Ca-ones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D4C43-1497-4B54-BE60-10135D76466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134153F-5344-4568-99C3-0B3E162164CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DED4D37B-A360-4CB2-B58F-E02DA2535194}"/>
   </bookViews>
@@ -229,85 +229,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,85 +322,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8510000000000002</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4039999999999999</c:v>
+                  <c:v>-3.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6589999999999998</c:v>
+                  <c:v>-23.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6160000000000005</c:v>
+                  <c:v>-54.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2750000000000004</c:v>
+                  <c:v>-97.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6360000000000001</c:v>
+                  <c:v>-152.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6989999999999998</c:v>
+                  <c:v>-219.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4640000000000004</c:v>
+                  <c:v>-297.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.931</c:v>
+                  <c:v>-387.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>-490</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9709999999999992</c:v>
+                  <c:v>-603.90000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5439999999999996</c:v>
+                  <c:v>-729.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81899999999999729</c:v>
+                  <c:v>-867.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.2040000000000006</c:v>
+                  <c:v>-1016.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5250000000000004</c:v>
+                  <c:v>-1177.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.1440000000000019</c:v>
+                  <c:v>-1350.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9.0609999999999999</c:v>
+                  <c:v>-1535.1000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.276000000000002</c:v>
+                  <c:v>-1731.6000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.789</c:v>
+                  <c:v>-1939.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-19.600000000000001</c:v>
+                  <c:v>-2160</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-23.709000000000003</c:v>
+                  <c:v>-2391.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-28.116000000000007</c:v>
+                  <c:v>-2635.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-32.820999999999998</c:v>
+                  <c:v>-2891.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-37.823999999999998</c:v>
+                  <c:v>-3158.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-43.125</c:v>
+                  <c:v>-3437.5000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-48.724000000000011</c:v>
+                  <c:v>-3728.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-54.621000000000009</c:v>
+                  <c:v>-4031.1000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1489,7 @@
   <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1531,521 +1531,521 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>B5-1</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:D45" si="0">B6*C6-((9.8*C6*C6)/2)</f>
-        <v>1.8510000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" ref="B7:B45" si="1">B6-1</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3.4039999999999999</v>
+        <v>-3.6000000000000014</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6589999999999998</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>5.6160000000000005</v>
+        <v>-54.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>6.2750000000000004</v>
+        <v>-97.5</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>6.6360000000000001</v>
+        <v>-152.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>6.6989999999999998</v>
+        <v>-219.10000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>6.4640000000000004</v>
+        <v>-297.60000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>5.931</v>
+        <v>-387.90000000000003</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>-490</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="1">
-        <v>1.1000000000000001</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>3.9709999999999992</v>
+        <v>-603.90000000000009</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="C17" s="1">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>2.5439999999999996</v>
+        <v>-729.6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="C18" s="1">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0.81899999999999729</v>
+        <v>-867.1</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>B18-1</f>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="C19" s="1">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2040000000000006</v>
+        <v>-1016.4000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C20" s="1">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5250000000000004</v>
+        <v>-1177.5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C21" s="1">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>-6.1440000000000019</v>
+        <v>-1350.4</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="C22" s="1">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>-9.0609999999999999</v>
+        <v>-1535.1000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="C23" s="1">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>-12.276000000000002</v>
+        <v>-1731.6000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="C24" s="1">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>-15.789</v>
+        <v>-1939.9</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>-19.600000000000001</v>
+        <v>-2160</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="C26" s="1">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>-23.709000000000003</v>
+        <v>-2391.9</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="C27" s="1">
-        <v>2.2000000000000002</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>-28.116000000000007</v>
+        <v>-2635.6000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2999999999999998</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>-32.820999999999998</v>
+        <v>-2891.1</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="C29" s="1">
-        <v>2.4</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>-37.823999999999998</v>
+        <v>-3158.4</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="C30" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>-43.125</v>
+        <v>-3437.5000000000005</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="C31" s="1">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>-48.724000000000011</v>
+        <v>-3728.4</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>B31-1</f>
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="C32" s="1">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>-54.621000000000009</v>
+        <v>-4031.1000000000004</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="C33" s="1">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>-60.815999999999995</v>
+        <v>-4345.6000000000004</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="C34" s="1">
-        <v>2.9</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>-67.308999999999997</v>
+        <v>-4671.9000000000005</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>-74.099999999999994</v>
+        <v>-5010</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-21</v>
       </c>
       <c r="C36" s="1">
-        <v>3.1</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>-81.189000000000007</v>
+        <v>-5359.9000000000005</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="C37" s="1">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>-88.576000000000022</v>
+        <v>-5721.6</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>-23</v>
       </c>
       <c r="C38" s="1">
-        <v>3.3</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>-96.260999999999996</v>
+        <v>-6095.1</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="C39" s="1">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>-104.244</v>
+        <v>-6480.4000000000005</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>B39-1</f>
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="C40" s="1">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>-112.52500000000001</v>
+        <v>-6877.5</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="C41" s="1">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>-121.10400000000001</v>
+        <v>-7286.4000000000005</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="C42" s="1">
-        <v>3.7</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>-129.98100000000002</v>
+        <v>-7707.1</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="C43" s="1">
-        <v>3.8</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>-139.15600000000001</v>
+        <v>-8139.6</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="C44" s="1">
-        <v>3.9</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>-148.62899999999999</v>
+        <v>-8583.9000000000015</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>-158.4</v>
+        <v>-9040</v>
       </c>
     </row>
   </sheetData>

--- a/formula bala.xlsx
+++ b/formula bala.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador.Cirino\Desktop\Juego\Juego-Vs-Ca-ones\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134153F-5344-4568-99C3-0B3E162164CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DED4D37B-A360-4CB2-B58F-E02DA2535194}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -52,11 +47,44 @@
   <si>
     <t>funcion</t>
   </si>
+  <si>
+    <t>y(t) =y0 +v0t * t</t>
+  </si>
+  <si>
+    <t>x(t) = x0 + vx * t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   =&gt;</t>
+  </si>
+  <si>
+    <t>Desde una ventana de una casa que esta a 15 m de altura lanzamos un chorro</t>
+  </si>
+  <si>
+    <t>de agua a 20 m/s con un agulo de 40º. Calcular la distancia a la que caera el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agua y la velocidad con la que llegara </t>
+  </si>
+  <si>
+    <t>0 + v0 * cos &amp;0 * t</t>
+  </si>
+  <si>
+    <t>y0 + v0 * t + 1/2* (at * at)</t>
+  </si>
+  <si>
+    <t>(20 * cos 40º * t)*m</t>
+  </si>
+  <si>
+    <t>(15 + 20 * sin 40º * t -4,9*t2)m</t>
+  </si>
+  <si>
+    <t>0=15 + 20 * sin 40º * tvuelo - 4,9*t2vuelo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,9 +163,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -182,7 +210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -406,7 +434,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CACA-42EF-A171-A26C611156D2}"/>
             </c:ext>
@@ -420,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="19296127"/>
-        <c:axId val="19301535"/>
+        <c:axId val="136886144"/>
+        <c:axId val="136896512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19296127"/>
+        <c:axId val="136886144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,15 +506,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19301535"/>
+        <c:crossAx val="136896512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19301535"/>
+        <c:axId val="136896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,10 +568,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19296127"/>
+        <c:crossAx val="136886144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -581,7 +609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -590,562 +618,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,7 +640,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEF01DF-8DC1-4CDF-6111-04F6C28C6889}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEF01DF-8DC1-4CDF-6111-04F6C28C6889}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,6 +656,66 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3457575" y="1895475"/>
+          <a:ext cx="4143375" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1232,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1284,7 +816,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1478,17 +1010,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486595C6-2894-4599-88EE-CBC04AA25AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2053,4 +1585,79 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/formula bala.xlsx
+++ b/formula bala.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador.Cirino\Desktop\Juego\Juego-Vs-Ca-ones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134153F-5344-4568-99C3-0B3E162164CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB441387-465C-4DD5-A774-48055C410C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DED4D37B-A360-4CB2-B58F-E02DA2535194}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DED4D37B-A360-4CB2-B58F-E02DA2535194}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>funcion</t>
+  </si>
+  <si>
+    <t>Angulo</t>
   </si>
 </sst>
 </file>
@@ -109,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +121,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +597,372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$5:$C$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$5:$D$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.290778623577246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.781557247154495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.472335870731747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.363114494308988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6357-4725-9350-41A0615C26F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="973204351"/>
+        <c:axId val="972541535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="973204351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972541535"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="972541535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973204351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1148,6 +1518,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1169,6 +2055,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEF01DF-8DC1-4CDF-6111-04F6C28C6889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBC81C0-76FB-4EBE-42A1-23619CB96895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486595C6-2894-4599-88EE-CBC04AA25AA5}">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,4 +2980,742 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE96F8-3317-4B9B-9C42-ADE483F355D7}">
+  <dimension ref="A1:E165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>($B$5*SIN(RADIANS($A$5))*C5-((9.8*C5*C5)/2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D9" si="0">($B$5*SIN(RADIANS($A$5))*C6-((9.8*C6*C6)/2))</f>
+        <v>23.290778623577246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>36.781557247154495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>40.472335870731747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>34.363114494308988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/formula bala.xlsx
+++ b/formula bala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador.Cirino\Desktop\Juego\Juego-Vs-Ca-ones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB441387-465C-4DD5-A774-48055C410C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784FAEAF-1E1E-4E70-B183-D3CD4661A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DED4D37B-A360-4CB2-B58F-E02DA2535194}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>X</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Angulo</t>
+  </si>
+  <si>
+    <t>($B$5*SENO(RADIANES($A$5))*C5-((9.8*C5*C5)/2))</t>
   </si>
 </sst>
 </file>
@@ -2984,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE96F8-3317-4B9B-9C42-ADE483F355D7}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,25 +2998,28 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -3053,7 +3059,7 @@
         <v>23.290778623577246</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -3064,7 +3070,7 @@
         <v>36.781557247154495</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>3</v>
@@ -3074,7 +3080,7 @@
         <v>40.472335870731747</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>4</v>
@@ -3084,36 +3090,36 @@
         <v>34.363114494308988</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
